--- a/Code/Results/Cases/Case_1_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9987235974243936</v>
+        <v>1.027644874290315</v>
       </c>
       <c r="D2">
-        <v>1.032390157045282</v>
+        <v>1.035205882930603</v>
       </c>
       <c r="E2">
-        <v>1.011591911390835</v>
+        <v>1.03635974369666</v>
       </c>
       <c r="F2">
-        <v>1.013906613944424</v>
+        <v>1.044138801283459</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04516659267625</v>
+        <v>1.034443573409688</v>
       </c>
       <c r="J2">
-        <v>1.020942552612166</v>
+        <v>1.032801598442629</v>
       </c>
       <c r="K2">
-        <v>1.043415960589148</v>
+        <v>1.038003153577268</v>
       </c>
       <c r="L2">
-        <v>1.022892080567969</v>
+        <v>1.039153709507249</v>
       </c>
       <c r="M2">
-        <v>1.025175548536369</v>
+        <v>1.046910693532092</v>
       </c>
       <c r="N2">
-        <v>1.010884740296824</v>
+        <v>1.014945071428707</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002640805562445</v>
+        <v>1.028481254863815</v>
       </c>
       <c r="D3">
-        <v>1.034638036067762</v>
+        <v>1.035685638156872</v>
       </c>
       <c r="E3">
-        <v>1.014965129482274</v>
+        <v>1.037137318184863</v>
       </c>
       <c r="F3">
-        <v>1.017919270700219</v>
+        <v>1.045077543415435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046008963109339</v>
+        <v>1.034572099891409</v>
       </c>
       <c r="J3">
-        <v>1.023059737526681</v>
+        <v>1.033278832566549</v>
       </c>
       <c r="K3">
-        <v>1.04484609915458</v>
+        <v>1.038293132674698</v>
       </c>
       <c r="L3">
-        <v>1.025410043561569</v>
+        <v>1.039740954254256</v>
       </c>
       <c r="M3">
-        <v>1.028327892275443</v>
+        <v>1.04766027984922</v>
       </c>
       <c r="N3">
-        <v>1.011598817380277</v>
+        <v>1.015104732275649</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005128868809249</v>
+        <v>1.029023068487988</v>
       </c>
       <c r="D4">
-        <v>1.036068139642612</v>
+        <v>1.035996276719077</v>
       </c>
       <c r="E4">
-        <v>1.017113603248744</v>
+        <v>1.03764145916311</v>
       </c>
       <c r="F4">
-        <v>1.020475337935986</v>
+        <v>1.04568632754884</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046535241317259</v>
+        <v>1.034654235789662</v>
       </c>
       <c r="J4">
-        <v>1.024402281336266</v>
+        <v>1.033587603756805</v>
       </c>
       <c r="K4">
-        <v>1.045749902592639</v>
+        <v>1.038480250832825</v>
       </c>
       <c r="L4">
-        <v>1.027009778307044</v>
+        <v>1.040121279854186</v>
       </c>
       <c r="M4">
-        <v>1.030332768141564</v>
+        <v>1.048146040815626</v>
       </c>
       <c r="N4">
-        <v>1.012051453284946</v>
+        <v>1.015207988811583</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006164035687305</v>
+        <v>1.029250993684819</v>
       </c>
       <c r="D5">
-        <v>1.036663623177036</v>
+        <v>1.036126916247814</v>
       </c>
       <c r="E5">
-        <v>1.018008877133949</v>
+        <v>1.037853637282363</v>
       </c>
       <c r="F5">
-        <v>1.021540552985296</v>
+        <v>1.045942583043806</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046752057653387</v>
+        <v>1.034688518566463</v>
       </c>
       <c r="J5">
-        <v>1.024960293544921</v>
+        <v>1.033717402497613</v>
       </c>
       <c r="K5">
-        <v>1.046124779650745</v>
+        <v>1.038558790029763</v>
       </c>
       <c r="L5">
-        <v>1.02767542709673</v>
+        <v>1.040281248518145</v>
       </c>
       <c r="M5">
-        <v>1.031167509991213</v>
+        <v>1.048350427559363</v>
       </c>
       <c r="N5">
-        <v>1.01223954189696</v>
+        <v>1.01525138431343</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006337220435257</v>
+        <v>1.029289271888686</v>
       </c>
       <c r="D6">
-        <v>1.036763274623026</v>
+        <v>1.036148853902914</v>
       </c>
       <c r="E6">
-        <v>1.018158738734654</v>
+        <v>1.037889276784193</v>
       </c>
       <c r="F6">
-        <v>1.021718867545656</v>
+        <v>1.045985628337003</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046788204146555</v>
+        <v>1.034694260281017</v>
       </c>
       <c r="J6">
-        <v>1.025053616166017</v>
+        <v>1.033739195734245</v>
       </c>
       <c r="K6">
-        <v>1.046187427620665</v>
+        <v>1.038571969721318</v>
       </c>
       <c r="L6">
-        <v>1.027786794574313</v>
+        <v>1.040308112599325</v>
       </c>
       <c r="M6">
-        <v>1.031307198369966</v>
+        <v>1.048384755082423</v>
       </c>
       <c r="N6">
-        <v>1.012270995392567</v>
+        <v>1.01525866980176</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005142742803083</v>
+        <v>1.029026113460936</v>
       </c>
       <c r="D7">
-        <v>1.036076118895187</v>
+        <v>1.035998022148356</v>
       </c>
       <c r="E7">
-        <v>1.017125596835768</v>
+        <v>1.037644293367471</v>
       </c>
       <c r="F7">
-        <v>1.020489607745841</v>
+        <v>1.045689750381775</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046538155750483</v>
+        <v>1.034654694849867</v>
       </c>
       <c r="J7">
-        <v>1.02440976242274</v>
+        <v>1.033589338169492</v>
       </c>
       <c r="K7">
-        <v>1.045754931572984</v>
+        <v>1.038481300771354</v>
       </c>
       <c r="L7">
-        <v>1.027018699517008</v>
+        <v>1.040123417051533</v>
       </c>
       <c r="M7">
-        <v>1.030343953540791</v>
+        <v>1.048148771164148</v>
       </c>
       <c r="N7">
-        <v>1.012053975104714</v>
+        <v>1.015208568718192</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000057306800315</v>
+        <v>1.027927403822001</v>
       </c>
       <c r="D8">
-        <v>1.033154966384318</v>
+        <v>1.035367974860465</v>
       </c>
       <c r="E8">
-        <v>1.012739145616957</v>
+        <v>1.036622320886178</v>
       </c>
       <c r="F8">
-        <v>1.015271266257024</v>
+        <v>1.044455771899304</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045455208468446</v>
+        <v>1.034487222225548</v>
       </c>
       <c r="J8">
-        <v>1.02166384683989</v>
+        <v>1.032962887688371</v>
       </c>
       <c r="K8">
-        <v>1.043903807057557</v>
+        <v>1.038101259763078</v>
       </c>
       <c r="L8">
-        <v>1.023749278327798</v>
+        <v>1.039352100605902</v>
       </c>
       <c r="M8">
-        <v>1.026248276765487</v>
+        <v>1.047163867952588</v>
       </c>
       <c r="N8">
-        <v>1.011128050650547</v>
+        <v>1.014999040617419</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9907225044980291</v>
+        <v>1.02599615016252</v>
       </c>
       <c r="D9">
-        <v>1.027815052978075</v>
+        <v>1.034259406641556</v>
       </c>
       <c r="E9">
-        <v>1.004735840483876</v>
+        <v>1.034829197491867</v>
       </c>
       <c r="F9">
-        <v>1.005751772171966</v>
+        <v>1.042291802750899</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043399789709722</v>
+        <v>1.034184262983883</v>
       </c>
       <c r="J9">
-        <v>1.01660718306244</v>
+        <v>1.031858815953945</v>
       </c>
       <c r="K9">
-        <v>1.040472412474431</v>
+        <v>1.037427672932877</v>
       </c>
       <c r="L9">
-        <v>1.017752546446428</v>
+        <v>1.037995599314076</v>
       </c>
       <c r="M9">
-        <v>1.018752215110314</v>
+        <v>1.045433991544671</v>
       </c>
       <c r="N9">
-        <v>1.009421686948396</v>
+        <v>1.014629426160579</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9842238247082113</v>
+        <v>1.024711976206868</v>
       </c>
       <c r="D10">
-        <v>1.024117786189236</v>
+        <v>1.033521591576209</v>
       </c>
       <c r="E10">
-        <v>0.9991990050951032</v>
+        <v>1.033639078050204</v>
       </c>
       <c r="F10">
-        <v>0.9991658104183316</v>
+        <v>1.040856295377704</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04192585684727</v>
+        <v>1.033977055238756</v>
       </c>
       <c r="J10">
-        <v>1.013077660580952</v>
+        <v>1.031122714541544</v>
       </c>
       <c r="K10">
-        <v>1.038064825096797</v>
+        <v>1.036976068645545</v>
       </c>
       <c r="L10">
-        <v>1.01358273682827</v>
+        <v>1.037093133182446</v>
       </c>
       <c r="M10">
-        <v>1.013550142767787</v>
+        <v>1.04428463224098</v>
       </c>
       <c r="N10">
-        <v>1.008229975241913</v>
+        <v>1.01438277486907</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.98133867906209</v>
+        <v>1.024156723586993</v>
       </c>
       <c r="D11">
-        <v>1.022482382971896</v>
+        <v>1.033202426224389</v>
       </c>
       <c r="E11">
-        <v>0.9967496554876857</v>
+        <v>1.033125021297423</v>
       </c>
       <c r="F11">
-        <v>0.9962520046426884</v>
+        <v>1.04023642059</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041261909539405</v>
+        <v>1.033886099573641</v>
       </c>
       <c r="J11">
-        <v>1.011508938696119</v>
+        <v>1.030803976841915</v>
       </c>
       <c r="K11">
-        <v>1.036992414077563</v>
+        <v>1.036779931929405</v>
       </c>
       <c r="L11">
-        <v>1.011733129968602</v>
+        <v>1.036702815701724</v>
       </c>
       <c r="M11">
-        <v>1.011244950496143</v>
+        <v>1.043787889753148</v>
       </c>
       <c r="N11">
-        <v>1.007700186479262</v>
+        <v>1.014275920453883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9802557855727843</v>
+        <v>1.023950600262207</v>
       </c>
       <c r="D12">
-        <v>1.021869574481183</v>
+        <v>1.03308392312026</v>
       </c>
       <c r="E12">
-        <v>0.9958316946678889</v>
+        <v>1.032934270733959</v>
       </c>
       <c r="F12">
-        <v>0.9951598966558972</v>
+        <v>1.040006430130626</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041011321827511</v>
+        <v>1.033852130025696</v>
       </c>
       <c r="J12">
-        <v>1.010919916464649</v>
+        <v>1.030685584535623</v>
       </c>
       <c r="K12">
-        <v>1.036589448657015</v>
+        <v>1.036706990882854</v>
       </c>
       <c r="L12">
-        <v>1.011039190921169</v>
+        <v>1.036557904353841</v>
       </c>
       <c r="M12">
-        <v>1.010380416612776</v>
+        <v>1.043603519941482</v>
       </c>
       <c r="N12">
-        <v>1.007501246467599</v>
+        <v>1.014236222489321</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9804885865664764</v>
+        <v>1.023994808859357</v>
       </c>
       <c r="D13">
-        <v>1.022001268759963</v>
+        <v>1.033109340183177</v>
       </c>
       <c r="E13">
-        <v>0.9960289759893535</v>
+        <v>1.032975178615034</v>
       </c>
       <c r="F13">
-        <v>0.9953946084295733</v>
+        <v>1.040055752131747</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041065255034035</v>
+        <v>1.033859424949202</v>
       </c>
       <c r="J13">
-        <v>1.011046554435055</v>
+        <v>1.030710980019538</v>
       </c>
       <c r="K13">
-        <v>1.036676097541271</v>
+        <v>1.036722640906199</v>
       </c>
       <c r="L13">
-        <v>1.0111883609363</v>
+        <v>1.036588985142499</v>
       </c>
       <c r="M13">
-        <v>1.010566243082556</v>
+        <v>1.043643061419508</v>
       </c>
       <c r="N13">
-        <v>1.007544018604247</v>
+        <v>1.014244738168571</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9812493988442148</v>
+        <v>1.024139682866404</v>
       </c>
       <c r="D14">
-        <v>1.022431838116841</v>
+        <v>1.033192629707136</v>
       </c>
       <c r="E14">
-        <v>0.9966739453127209</v>
+        <v>1.03310924984887</v>
       </c>
       <c r="F14">
-        <v>0.9961619331989402</v>
+        <v>1.040217404220226</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041241277448073</v>
+        <v>1.033883295401029</v>
       </c>
       <c r="J14">
-        <v>1.011460380586777</v>
+        <v>1.030794190468192</v>
       </c>
       <c r="K14">
-        <v>1.036959199943697</v>
+        <v>1.036773904369431</v>
       </c>
       <c r="L14">
-        <v>1.011675911531108</v>
+        <v>1.03669083584965</v>
       </c>
       <c r="M14">
-        <v>1.011173659046126</v>
+        <v>1.043772646771537</v>
       </c>
       <c r="N14">
-        <v>1.0076837864581</v>
+        <v>1.014272639157663</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9817166570215197</v>
+        <v>1.024228960765552</v>
       </c>
       <c r="D15">
-        <v>1.022696412374748</v>
+        <v>1.033243953700925</v>
       </c>
       <c r="E15">
-        <v>0.9970702390082988</v>
+        <v>1.033191881188831</v>
       </c>
       <c r="F15">
-        <v>0.9966333954216897</v>
+        <v>1.040317037733547</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041349201660554</v>
+        <v>1.033897978339588</v>
       </c>
       <c r="J15">
-        <v>1.0117145059236</v>
+        <v>1.030845459349421</v>
       </c>
       <c r="K15">
-        <v>1.037133011894256</v>
+        <v>1.036805477975293</v>
       </c>
       <c r="L15">
-        <v>1.011975382444608</v>
+        <v>1.036753598741527</v>
       </c>
       <c r="M15">
-        <v>1.0115467990427</v>
+        <v>1.04385250750949</v>
       </c>
       <c r="N15">
-        <v>1.007769614167401</v>
+        <v>1.014289828900633</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9844137583532242</v>
+        <v>1.024748843549023</v>
       </c>
       <c r="D16">
-        <v>1.024225582179312</v>
+        <v>1.033542780306528</v>
       </c>
       <c r="E16">
-        <v>0.9993604364410387</v>
+        <v>1.033673221272332</v>
       </c>
       <c r="F16">
-        <v>0.9993578434992504</v>
+        <v>1.040897470595948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04196937017651</v>
+        <v>1.033983065744012</v>
       </c>
       <c r="J16">
-        <v>1.013180898379206</v>
+        <v>1.031143868196333</v>
       </c>
       <c r="K16">
-        <v>1.038135356335289</v>
+        <v>1.036989073298829</v>
       </c>
       <c r="L16">
-        <v>1.013704536283408</v>
+        <v>1.037119047000539</v>
       </c>
       <c r="M16">
-        <v>1.013701990098176</v>
+        <v>1.04431761929539</v>
       </c>
       <c r="N16">
-        <v>1.008264838397517</v>
+        <v>1.014389865371322</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.986086160028401</v>
+        <v>1.025075168412073</v>
       </c>
       <c r="D17">
-        <v>1.025175446658826</v>
+        <v>1.033730311691791</v>
       </c>
       <c r="E17">
-        <v>1.000782875915519</v>
+        <v>1.033975495213552</v>
       </c>
       <c r="F17">
-        <v>1.001049884524753</v>
+        <v>1.041262019730084</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042351427256173</v>
+        <v>1.034036109140066</v>
       </c>
       <c r="J17">
-        <v>1.014089730500483</v>
+        <v>1.031331052784801</v>
       </c>
       <c r="K17">
-        <v>1.038756002869021</v>
+        <v>1.037104081046347</v>
       </c>
       <c r="L17">
-        <v>1.01477719239128</v>
+        <v>1.037348406185006</v>
       </c>
       <c r="M17">
-        <v>1.015039530470122</v>
+        <v>1.044609623795185</v>
       </c>
       <c r="N17">
-        <v>1.008571735090303</v>
+        <v>1.014452601795542</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9870548137021017</v>
+        <v>1.025265585574328</v>
       </c>
       <c r="D18">
-        <v>1.025726173322054</v>
+        <v>1.033839725682905</v>
       </c>
       <c r="E18">
-        <v>1.001607582921524</v>
+        <v>1.034151929178854</v>
       </c>
       <c r="F18">
-        <v>1.002030870527703</v>
+        <v>1.041474819880178</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042571799922411</v>
+        <v>1.034066929406624</v>
       </c>
       <c r="J18">
-        <v>1.014615955557548</v>
+        <v>1.031440234217573</v>
       </c>
       <c r="K18">
-        <v>1.03911513882774</v>
+        <v>1.037171106190676</v>
       </c>
       <c r="L18">
-        <v>1.015398624966926</v>
+        <v>1.037482231450988</v>
       </c>
       <c r="M18">
-        <v>1.015814640339824</v>
+        <v>1.044780035444872</v>
       </c>
       <c r="N18">
-        <v>1.008749420100867</v>
+        <v>1.01448918976771</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9873839566319365</v>
+        <v>1.025330525985451</v>
       </c>
       <c r="D19">
-        <v>1.025913399900219</v>
+        <v>1.033877038071221</v>
       </c>
       <c r="E19">
-        <v>1.001887953294766</v>
+        <v>1.034212109357783</v>
       </c>
       <c r="F19">
-        <v>1.002364365508705</v>
+        <v>1.041547407130988</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042646524580513</v>
+        <v>1.03407741810603</v>
       </c>
       <c r="J19">
-        <v>1.014794733919223</v>
+        <v>1.031477462198974</v>
       </c>
       <c r="K19">
-        <v>1.039237110823798</v>
+        <v>1.037193950335069</v>
       </c>
       <c r="L19">
-        <v>1.015609808664526</v>
+        <v>1.03752786981811</v>
       </c>
       <c r="M19">
-        <v>1.016078086310274</v>
+        <v>1.044838156692739</v>
       </c>
       <c r="N19">
-        <v>1.00880978422822</v>
+        <v>1.014501664438046</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.985907437327134</v>
+        <v>1.025040148826494</v>
       </c>
       <c r="D20">
-        <v>1.025073879087468</v>
+        <v>1.033710188220209</v>
       </c>
       <c r="E20">
-        <v>1.00063077912323</v>
+        <v>1.033943051377189</v>
       </c>
       <c r="F20">
-        <v>1.000868963580962</v>
+        <v>1.041222889998054</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042310692851165</v>
+        <v>1.03403043039418</v>
       </c>
       <c r="J20">
-        <v>1.013992624690493</v>
+        <v>1.031310969658908</v>
       </c>
       <c r="K20">
-        <v>1.038689711837777</v>
+        <v>1.037091747682046</v>
       </c>
       <c r="L20">
-        <v>1.014662546101407</v>
+        <v>1.037323793560816</v>
       </c>
       <c r="M20">
-        <v>1.014896550501949</v>
+        <v>1.044578285117475</v>
       </c>
       <c r="N20">
-        <v>1.008538945378428</v>
+        <v>1.014445871297551</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9810256727812094</v>
+        <v>1.024097017695836</v>
       </c>
       <c r="D21">
-        <v>1.022305195178973</v>
+        <v>1.033168101646114</v>
       </c>
       <c r="E21">
-        <v>0.9964842463614667</v>
+        <v>1.033069763870054</v>
       </c>
       <c r="F21">
-        <v>0.9959362493655407</v>
+        <v>1.040169794554957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041189553634127</v>
+        <v>1.033876271236914</v>
       </c>
       <c r="J21">
-        <v>1.01133869595522</v>
+        <v>1.030769687025874</v>
       </c>
       <c r="K21">
-        <v>1.036875962079114</v>
+        <v>1.036758810951683</v>
       </c>
       <c r="L21">
-        <v>1.011532533309276</v>
+        <v>1.036660841413027</v>
       </c>
       <c r="M21">
-        <v>1.010995021922041</v>
+        <v>1.043734483169658</v>
       </c>
       <c r="N21">
-        <v>1.007642688439762</v>
+        <v>1.014264423214562</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9778911011274178</v>
+        <v>1.023504741624908</v>
       </c>
       <c r="D22">
-        <v>1.020533387668</v>
+        <v>1.032827555483601</v>
       </c>
       <c r="E22">
-        <v>0.9938297263115463</v>
+        <v>1.032521810888144</v>
       </c>
       <c r="F22">
-        <v>0.9927779565497999</v>
+        <v>1.03950916894865</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040461634937689</v>
+        <v>1.033778277787792</v>
       </c>
       <c r="J22">
-        <v>1.009633308841612</v>
+        <v>1.030429367923238</v>
       </c>
       <c r="K22">
-        <v>1.035708761251028</v>
+        <v>1.036548976939518</v>
       </c>
       <c r="L22">
-        <v>1.009524416598569</v>
+        <v>1.036244422443507</v>
       </c>
       <c r="M22">
-        <v>1.008493854130112</v>
+        <v>1.043204776446514</v>
       </c>
       <c r="N22">
-        <v>1.007066674851338</v>
+        <v>1.014150296566863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9795591634168955</v>
+        <v>1.023818650755763</v>
       </c>
       <c r="D23">
-        <v>1.021475656159712</v>
+        <v>1.033008057740679</v>
       </c>
       <c r="E23">
-        <v>0.995241563193071</v>
+        <v>1.032812184608989</v>
       </c>
       <c r="F23">
-        <v>0.9944577849645468</v>
+        <v>1.039859236546563</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040849735971368</v>
+        <v>1.033830326908401</v>
       </c>
       <c r="J23">
-        <v>1.010540940860088</v>
+        <v>1.03060977647345</v>
       </c>
       <c r="K23">
-        <v>1.036330104673428</v>
+        <v>1.036660261188219</v>
       </c>
       <c r="L23">
-        <v>1.010592866252428</v>
+        <v>1.036465135131186</v>
       </c>
       <c r="M23">
-        <v>1.009824461630502</v>
+        <v>1.043485505265792</v>
       </c>
       <c r="N23">
-        <v>1.007373244959</v>
+        <v>1.014210801190526</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9859882154911748</v>
+        <v>1.025055972430873</v>
       </c>
       <c r="D24">
-        <v>1.025119783328212</v>
+        <v>1.033719281058061</v>
       </c>
       <c r="E24">
-        <v>1.000699520473393</v>
+        <v>1.033957710971447</v>
       </c>
       <c r="F24">
-        <v>1.000950732330438</v>
+        <v>1.041240570530632</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042329106615759</v>
+        <v>1.034032996742941</v>
       </c>
       <c r="J24">
-        <v>1.014036514602236</v>
+        <v>1.031320044359705</v>
       </c>
       <c r="K24">
-        <v>1.038719674781927</v>
+        <v>1.037097320774572</v>
       </c>
       <c r="L24">
-        <v>1.014714362874532</v>
+        <v>1.03733491481067</v>
       </c>
       <c r="M24">
-        <v>1.014961172589348</v>
+        <v>1.044592445437954</v>
       </c>
       <c r="N24">
-        <v>1.008553765719137</v>
+        <v>1.014448912535766</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9931824651083241</v>
+        <v>1.02649484563872</v>
       </c>
       <c r="D25">
-        <v>1.029219148207972</v>
+        <v>1.034545789791311</v>
       </c>
       <c r="E25">
-        <v>1.006839049459547</v>
+        <v>1.035291836991418</v>
       </c>
       <c r="F25">
-        <v>1.008253361832274</v>
+        <v>1.042849990237373</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043949070856941</v>
+        <v>1.034263511102194</v>
       </c>
       <c r="J25">
-        <v>1.017941465129053</v>
+        <v>1.032144259640188</v>
       </c>
       <c r="K25">
-        <v>1.041380196507027</v>
+        <v>1.037602265924898</v>
       </c>
       <c r="L25">
-        <v>1.019332117648188</v>
+        <v>1.038345964143762</v>
       </c>
       <c r="M25">
-        <v>1.020724891935666</v>
+        <v>1.045880526997339</v>
       </c>
       <c r="N25">
-        <v>1.009872067856013</v>
+        <v>1.014725024906708</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027644874290315</v>
+        <v>0.9987235974243925</v>
       </c>
       <c r="D2">
-        <v>1.035205882930603</v>
+        <v>1.032390157045281</v>
       </c>
       <c r="E2">
-        <v>1.03635974369666</v>
+        <v>1.011591911390834</v>
       </c>
       <c r="F2">
-        <v>1.044138801283459</v>
+        <v>1.013906613944423</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034443573409688</v>
+        <v>1.045166592676249</v>
       </c>
       <c r="J2">
-        <v>1.032801598442629</v>
+        <v>1.020942552612166</v>
       </c>
       <c r="K2">
-        <v>1.038003153577268</v>
+        <v>1.043415960589148</v>
       </c>
       <c r="L2">
-        <v>1.039153709507249</v>
+        <v>1.022892080567968</v>
       </c>
       <c r="M2">
-        <v>1.046910693532092</v>
+        <v>1.025175548536368</v>
       </c>
       <c r="N2">
-        <v>1.014945071428707</v>
+        <v>1.010884740296824</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028481254863815</v>
+        <v>1.002640805562445</v>
       </c>
       <c r="D3">
-        <v>1.035685638156872</v>
+        <v>1.034638036067762</v>
       </c>
       <c r="E3">
-        <v>1.037137318184863</v>
+        <v>1.014965129482274</v>
       </c>
       <c r="F3">
-        <v>1.045077543415435</v>
+        <v>1.017919270700219</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034572099891409</v>
+        <v>1.046008963109339</v>
       </c>
       <c r="J3">
-        <v>1.033278832566549</v>
+        <v>1.023059737526681</v>
       </c>
       <c r="K3">
-        <v>1.038293132674698</v>
+        <v>1.04484609915458</v>
       </c>
       <c r="L3">
-        <v>1.039740954254256</v>
+        <v>1.025410043561569</v>
       </c>
       <c r="M3">
-        <v>1.04766027984922</v>
+        <v>1.028327892275443</v>
       </c>
       <c r="N3">
-        <v>1.015104732275649</v>
+        <v>1.011598817380277</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029023068487988</v>
+        <v>1.005128868809249</v>
       </c>
       <c r="D4">
-        <v>1.035996276719077</v>
+        <v>1.036068139642611</v>
       </c>
       <c r="E4">
-        <v>1.03764145916311</v>
+        <v>1.017113603248743</v>
       </c>
       <c r="F4">
-        <v>1.04568632754884</v>
+        <v>1.020475337935986</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034654235789662</v>
+        <v>1.046535241317259</v>
       </c>
       <c r="J4">
-        <v>1.033587603756805</v>
+        <v>1.024402281336266</v>
       </c>
       <c r="K4">
-        <v>1.038480250832825</v>
+        <v>1.045749902592638</v>
       </c>
       <c r="L4">
-        <v>1.040121279854186</v>
+        <v>1.027009778307043</v>
       </c>
       <c r="M4">
-        <v>1.048146040815626</v>
+        <v>1.030332768141563</v>
       </c>
       <c r="N4">
-        <v>1.015207988811583</v>
+        <v>1.012051453284946</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029250993684819</v>
+        <v>1.006164035687305</v>
       </c>
       <c r="D5">
-        <v>1.036126916247814</v>
+        <v>1.036663623177036</v>
       </c>
       <c r="E5">
-        <v>1.037853637282363</v>
+        <v>1.018008877133949</v>
       </c>
       <c r="F5">
-        <v>1.045942583043806</v>
+        <v>1.021540552985296</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034688518566463</v>
+        <v>1.046752057653387</v>
       </c>
       <c r="J5">
-        <v>1.033717402497613</v>
+        <v>1.024960293544921</v>
       </c>
       <c r="K5">
-        <v>1.038558790029763</v>
+        <v>1.046124779650744</v>
       </c>
       <c r="L5">
-        <v>1.040281248518145</v>
+        <v>1.02767542709673</v>
       </c>
       <c r="M5">
-        <v>1.048350427559363</v>
+        <v>1.031167509991213</v>
       </c>
       <c r="N5">
-        <v>1.01525138431343</v>
+        <v>1.01223954189696</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029289271888686</v>
+        <v>1.006337220435257</v>
       </c>
       <c r="D6">
-        <v>1.036148853902914</v>
+        <v>1.036763274623026</v>
       </c>
       <c r="E6">
-        <v>1.037889276784193</v>
+        <v>1.018158738734653</v>
       </c>
       <c r="F6">
-        <v>1.045985628337003</v>
+        <v>1.021718867545655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034694260281017</v>
+        <v>1.046788204146555</v>
       </c>
       <c r="J6">
-        <v>1.033739195734245</v>
+        <v>1.025053616166016</v>
       </c>
       <c r="K6">
-        <v>1.038571969721318</v>
+        <v>1.046187427620665</v>
       </c>
       <c r="L6">
-        <v>1.040308112599325</v>
+        <v>1.027786794574312</v>
       </c>
       <c r="M6">
-        <v>1.048384755082423</v>
+        <v>1.031307198369965</v>
       </c>
       <c r="N6">
-        <v>1.01525866980176</v>
+        <v>1.012270995392567</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029026113460936</v>
+        <v>1.005142742803084</v>
       </c>
       <c r="D7">
-        <v>1.035998022148356</v>
+        <v>1.036076118895187</v>
       </c>
       <c r="E7">
-        <v>1.037644293367471</v>
+        <v>1.017125596835768</v>
       </c>
       <c r="F7">
-        <v>1.045689750381775</v>
+        <v>1.020489607745841</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034654694849867</v>
+        <v>1.046538155750484</v>
       </c>
       <c r="J7">
-        <v>1.033589338169492</v>
+        <v>1.02440976242274</v>
       </c>
       <c r="K7">
-        <v>1.038481300771354</v>
+        <v>1.045754931572984</v>
       </c>
       <c r="L7">
-        <v>1.040123417051533</v>
+        <v>1.027018699517009</v>
       </c>
       <c r="M7">
-        <v>1.048148771164148</v>
+        <v>1.030343953540791</v>
       </c>
       <c r="N7">
-        <v>1.015208568718192</v>
+        <v>1.012053975104714</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027927403822001</v>
+        <v>1.000057306800314</v>
       </c>
       <c r="D8">
-        <v>1.035367974860465</v>
+        <v>1.033154966384318</v>
       </c>
       <c r="E8">
-        <v>1.036622320886178</v>
+        <v>1.012739145616957</v>
       </c>
       <c r="F8">
-        <v>1.044455771899304</v>
+        <v>1.015271266257024</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034487222225548</v>
+        <v>1.045455208468446</v>
       </c>
       <c r="J8">
-        <v>1.032962887688371</v>
+        <v>1.021663846839889</v>
       </c>
       <c r="K8">
-        <v>1.038101259763078</v>
+        <v>1.043903807057557</v>
       </c>
       <c r="L8">
-        <v>1.039352100605902</v>
+        <v>1.023749278327798</v>
       </c>
       <c r="M8">
-        <v>1.047163867952588</v>
+        <v>1.026248276765486</v>
       </c>
       <c r="N8">
-        <v>1.014999040617419</v>
+        <v>1.011128050650547</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02599615016252</v>
+        <v>0.990722504498028</v>
       </c>
       <c r="D9">
-        <v>1.034259406641556</v>
+        <v>1.027815052978075</v>
       </c>
       <c r="E9">
-        <v>1.034829197491867</v>
+        <v>1.004735840483875</v>
       </c>
       <c r="F9">
-        <v>1.042291802750899</v>
+        <v>1.005751772171965</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034184262983883</v>
+        <v>1.043399789709722</v>
       </c>
       <c r="J9">
-        <v>1.031858815953945</v>
+        <v>1.01660718306244</v>
       </c>
       <c r="K9">
-        <v>1.037427672932877</v>
+        <v>1.040472412474431</v>
       </c>
       <c r="L9">
-        <v>1.037995599314076</v>
+        <v>1.017752546446427</v>
       </c>
       <c r="M9">
-        <v>1.045433991544671</v>
+        <v>1.018752215110313</v>
       </c>
       <c r="N9">
-        <v>1.014629426160579</v>
+        <v>1.009421686948396</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024711976206868</v>
+        <v>0.9842238247082105</v>
       </c>
       <c r="D10">
-        <v>1.033521591576209</v>
+        <v>1.024117786189235</v>
       </c>
       <c r="E10">
-        <v>1.033639078050204</v>
+        <v>0.9991990050951026</v>
       </c>
       <c r="F10">
-        <v>1.040856295377704</v>
+        <v>0.9991658104183311</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033977055238756</v>
+        <v>1.04192585684727</v>
       </c>
       <c r="J10">
-        <v>1.031122714541544</v>
+        <v>1.013077660580952</v>
       </c>
       <c r="K10">
-        <v>1.036976068645545</v>
+        <v>1.038064825096796</v>
       </c>
       <c r="L10">
-        <v>1.037093133182446</v>
+        <v>1.013582736828269</v>
       </c>
       <c r="M10">
-        <v>1.04428463224098</v>
+        <v>1.013550142767786</v>
       </c>
       <c r="N10">
-        <v>1.01438277486907</v>
+        <v>1.008229975241912</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024156723586993</v>
+        <v>0.9813386790620895</v>
       </c>
       <c r="D11">
-        <v>1.033202426224389</v>
+        <v>1.022482382971896</v>
       </c>
       <c r="E11">
-        <v>1.033125021297423</v>
+        <v>0.9967496554876855</v>
       </c>
       <c r="F11">
-        <v>1.04023642059</v>
+        <v>0.9962520046426885</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033886099573641</v>
+        <v>1.041261909539405</v>
       </c>
       <c r="J11">
-        <v>1.030803976841915</v>
+        <v>1.011508938696118</v>
       </c>
       <c r="K11">
-        <v>1.036779931929405</v>
+        <v>1.036992414077563</v>
       </c>
       <c r="L11">
-        <v>1.036702815701724</v>
+        <v>1.011733129968602</v>
       </c>
       <c r="M11">
-        <v>1.043787889753148</v>
+        <v>1.011244950496143</v>
       </c>
       <c r="N11">
-        <v>1.014275920453883</v>
+        <v>1.007700186479262</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023950600262207</v>
+        <v>0.9802557855727837</v>
       </c>
       <c r="D12">
-        <v>1.03308392312026</v>
+        <v>1.021869574481183</v>
       </c>
       <c r="E12">
-        <v>1.032934270733959</v>
+        <v>0.9958316946678883</v>
       </c>
       <c r="F12">
-        <v>1.040006430130626</v>
+        <v>0.9951598966558965</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033852130025696</v>
+        <v>1.041011321827511</v>
       </c>
       <c r="J12">
-        <v>1.030685584535623</v>
+        <v>1.010919916464648</v>
       </c>
       <c r="K12">
-        <v>1.036706990882854</v>
+        <v>1.036589448657015</v>
       </c>
       <c r="L12">
-        <v>1.036557904353841</v>
+        <v>1.011039190921168</v>
       </c>
       <c r="M12">
-        <v>1.043603519941482</v>
+        <v>1.010380416612775</v>
       </c>
       <c r="N12">
-        <v>1.014236222489321</v>
+        <v>1.007501246467599</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023994808859357</v>
+        <v>0.9804885865664755</v>
       </c>
       <c r="D13">
-        <v>1.033109340183177</v>
+        <v>1.022001268759962</v>
       </c>
       <c r="E13">
-        <v>1.032975178615034</v>
+        <v>0.9960289759893527</v>
       </c>
       <c r="F13">
-        <v>1.040055752131747</v>
+        <v>0.9953946084295723</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033859424949202</v>
+        <v>1.041065255034035</v>
       </c>
       <c r="J13">
-        <v>1.030710980019538</v>
+        <v>1.011046554435054</v>
       </c>
       <c r="K13">
-        <v>1.036722640906199</v>
+        <v>1.036676097541271</v>
       </c>
       <c r="L13">
-        <v>1.036588985142499</v>
+        <v>1.011188360936299</v>
       </c>
       <c r="M13">
-        <v>1.043643061419508</v>
+        <v>1.010566243082555</v>
       </c>
       <c r="N13">
-        <v>1.014244738168571</v>
+        <v>1.007544018604246</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024139682866404</v>
+        <v>0.9812493988442141</v>
       </c>
       <c r="D14">
-        <v>1.033192629707136</v>
+        <v>1.022431838116841</v>
       </c>
       <c r="E14">
-        <v>1.03310924984887</v>
+        <v>0.9966739453127202</v>
       </c>
       <c r="F14">
-        <v>1.040217404220226</v>
+        <v>0.9961619331989398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033883295401029</v>
+        <v>1.041241277448073</v>
       </c>
       <c r="J14">
-        <v>1.030794190468192</v>
+        <v>1.011460380586777</v>
       </c>
       <c r="K14">
-        <v>1.036773904369431</v>
+        <v>1.036959199943698</v>
       </c>
       <c r="L14">
-        <v>1.03669083584965</v>
+        <v>1.011675911531107</v>
       </c>
       <c r="M14">
-        <v>1.043772646771537</v>
+        <v>1.011173659046126</v>
       </c>
       <c r="N14">
-        <v>1.014272639157663</v>
+        <v>1.0076837864581</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024228960765552</v>
+        <v>0.9817166570215202</v>
       </c>
       <c r="D15">
-        <v>1.033243953700925</v>
+        <v>1.022696412374748</v>
       </c>
       <c r="E15">
-        <v>1.033191881188831</v>
+        <v>0.9970702390082996</v>
       </c>
       <c r="F15">
-        <v>1.040317037733547</v>
+        <v>0.9966333954216908</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033897978339588</v>
+        <v>1.041349201660554</v>
       </c>
       <c r="J15">
-        <v>1.030845459349421</v>
+        <v>1.0117145059236</v>
       </c>
       <c r="K15">
-        <v>1.036805477975293</v>
+        <v>1.037133011894256</v>
       </c>
       <c r="L15">
-        <v>1.036753598741527</v>
+        <v>1.011975382444609</v>
       </c>
       <c r="M15">
-        <v>1.04385250750949</v>
+        <v>1.011546799042701</v>
       </c>
       <c r="N15">
-        <v>1.014289828900633</v>
+        <v>1.007769614167401</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024748843549023</v>
+        <v>0.9844137583532233</v>
       </c>
       <c r="D16">
-        <v>1.033542780306528</v>
+        <v>1.024225582179311</v>
       </c>
       <c r="E16">
-        <v>1.033673221272332</v>
+        <v>0.9993604364410377</v>
       </c>
       <c r="F16">
-        <v>1.040897470595948</v>
+        <v>0.9993578434992494</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033983065744012</v>
+        <v>1.04196937017651</v>
       </c>
       <c r="J16">
-        <v>1.031143868196333</v>
+        <v>1.013180898379205</v>
       </c>
       <c r="K16">
-        <v>1.036989073298829</v>
+        <v>1.038135356335289</v>
       </c>
       <c r="L16">
-        <v>1.037119047000539</v>
+        <v>1.013704536283407</v>
       </c>
       <c r="M16">
-        <v>1.04431761929539</v>
+        <v>1.013701990098175</v>
       </c>
       <c r="N16">
-        <v>1.014389865371322</v>
+        <v>1.008264838397516</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025075168412073</v>
+        <v>0.9860861600284007</v>
       </c>
       <c r="D17">
-        <v>1.033730311691791</v>
+        <v>1.025175446658826</v>
       </c>
       <c r="E17">
-        <v>1.033975495213552</v>
+        <v>1.000782875915519</v>
       </c>
       <c r="F17">
-        <v>1.041262019730084</v>
+        <v>1.001049884524753</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034036109140066</v>
+        <v>1.042351427256173</v>
       </c>
       <c r="J17">
-        <v>1.031331052784801</v>
+        <v>1.014089730500483</v>
       </c>
       <c r="K17">
-        <v>1.037104081046347</v>
+        <v>1.038756002869021</v>
       </c>
       <c r="L17">
-        <v>1.037348406185006</v>
+        <v>1.014777192391279</v>
       </c>
       <c r="M17">
-        <v>1.044609623795185</v>
+        <v>1.015039530470121</v>
       </c>
       <c r="N17">
-        <v>1.014452601795542</v>
+        <v>1.008571735090303</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025265585574328</v>
+        <v>0.9870548137021009</v>
       </c>
       <c r="D18">
-        <v>1.033839725682905</v>
+        <v>1.025726173322054</v>
       </c>
       <c r="E18">
-        <v>1.034151929178854</v>
+        <v>1.001607582921523</v>
       </c>
       <c r="F18">
-        <v>1.041474819880178</v>
+        <v>1.002030870527702</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034066929406624</v>
+        <v>1.042571799922411</v>
       </c>
       <c r="J18">
-        <v>1.031440234217573</v>
+        <v>1.014615955557547</v>
       </c>
       <c r="K18">
-        <v>1.037171106190676</v>
+        <v>1.03911513882774</v>
       </c>
       <c r="L18">
-        <v>1.037482231450988</v>
+        <v>1.015398624966925</v>
       </c>
       <c r="M18">
-        <v>1.044780035444872</v>
+        <v>1.015814640339822</v>
       </c>
       <c r="N18">
-        <v>1.01448918976771</v>
+        <v>1.008749420100867</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025330525985451</v>
+        <v>0.987383956631936</v>
       </c>
       <c r="D19">
-        <v>1.033877038071221</v>
+        <v>1.025913399900219</v>
       </c>
       <c r="E19">
-        <v>1.034212109357783</v>
+        <v>1.001887953294766</v>
       </c>
       <c r="F19">
-        <v>1.041547407130988</v>
+        <v>1.002364365508704</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03407741810603</v>
+        <v>1.042646524580513</v>
       </c>
       <c r="J19">
-        <v>1.031477462198974</v>
+        <v>1.014794733919222</v>
       </c>
       <c r="K19">
-        <v>1.037193950335069</v>
+        <v>1.039237110823798</v>
       </c>
       <c r="L19">
-        <v>1.03752786981811</v>
+        <v>1.015609808664525</v>
       </c>
       <c r="M19">
-        <v>1.044838156692739</v>
+        <v>1.016078086310274</v>
       </c>
       <c r="N19">
-        <v>1.014501664438046</v>
+        <v>1.00880978422822</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025040148826494</v>
+        <v>0.9859074373271338</v>
       </c>
       <c r="D20">
-        <v>1.033710188220209</v>
+        <v>1.025073879087468</v>
       </c>
       <c r="E20">
-        <v>1.033943051377189</v>
+        <v>1.00063077912323</v>
       </c>
       <c r="F20">
-        <v>1.041222889998054</v>
+        <v>1.000868963580961</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03403043039418</v>
+        <v>1.042310692851165</v>
       </c>
       <c r="J20">
-        <v>1.031310969658908</v>
+        <v>1.013992624690492</v>
       </c>
       <c r="K20">
-        <v>1.037091747682046</v>
+        <v>1.038689711837777</v>
       </c>
       <c r="L20">
-        <v>1.037323793560816</v>
+        <v>1.014662546101407</v>
       </c>
       <c r="M20">
-        <v>1.044578285117475</v>
+        <v>1.014896550501949</v>
       </c>
       <c r="N20">
-        <v>1.014445871297551</v>
+        <v>1.008538945378428</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024097017695836</v>
+        <v>0.981025672781209</v>
       </c>
       <c r="D21">
-        <v>1.033168101646114</v>
+        <v>1.022305195178973</v>
       </c>
       <c r="E21">
-        <v>1.033069763870054</v>
+        <v>0.996484246361466</v>
       </c>
       <c r="F21">
-        <v>1.040169794554957</v>
+        <v>0.9959362493655398</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033876271236914</v>
+        <v>1.041189553634127</v>
       </c>
       <c r="J21">
-        <v>1.030769687025874</v>
+        <v>1.011338695955219</v>
       </c>
       <c r="K21">
-        <v>1.036758810951683</v>
+        <v>1.036875962079113</v>
       </c>
       <c r="L21">
-        <v>1.036660841413027</v>
+        <v>1.011532533309276</v>
       </c>
       <c r="M21">
-        <v>1.043734483169658</v>
+        <v>1.01099502192204</v>
       </c>
       <c r="N21">
-        <v>1.014264423214562</v>
+        <v>1.007642688439762</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023504741624908</v>
+        <v>0.9778911011274171</v>
       </c>
       <c r="D22">
-        <v>1.032827555483601</v>
+        <v>1.020533387667999</v>
       </c>
       <c r="E22">
-        <v>1.032521810888144</v>
+        <v>0.9938297263115456</v>
       </c>
       <c r="F22">
-        <v>1.03950916894865</v>
+        <v>0.9927779565497992</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033778277787792</v>
+        <v>1.040461634937688</v>
       </c>
       <c r="J22">
-        <v>1.030429367923238</v>
+        <v>1.009633308841611</v>
       </c>
       <c r="K22">
-        <v>1.036548976939518</v>
+        <v>1.035708761251027</v>
       </c>
       <c r="L22">
-        <v>1.036244422443507</v>
+        <v>1.009524416598569</v>
       </c>
       <c r="M22">
-        <v>1.043204776446514</v>
+        <v>1.008493854130111</v>
       </c>
       <c r="N22">
-        <v>1.014150296566863</v>
+        <v>1.007066674851338</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023818650755763</v>
+        <v>0.9795591634168951</v>
       </c>
       <c r="D23">
-        <v>1.033008057740679</v>
+        <v>1.021475656159711</v>
       </c>
       <c r="E23">
-        <v>1.032812184608989</v>
+        <v>0.9952415631930708</v>
       </c>
       <c r="F23">
-        <v>1.039859236546563</v>
+        <v>0.9944577849645465</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033830326908401</v>
+        <v>1.040849735971368</v>
       </c>
       <c r="J23">
-        <v>1.03060977647345</v>
+        <v>1.010540940860088</v>
       </c>
       <c r="K23">
-        <v>1.036660261188219</v>
+        <v>1.036330104673427</v>
       </c>
       <c r="L23">
-        <v>1.036465135131186</v>
+        <v>1.010592866252428</v>
       </c>
       <c r="M23">
-        <v>1.043485505265792</v>
+        <v>1.009824461630502</v>
       </c>
       <c r="N23">
-        <v>1.014210801190526</v>
+        <v>1.007373244959</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025055972430873</v>
+        <v>0.9859882154911752</v>
       </c>
       <c r="D24">
-        <v>1.033719281058061</v>
+        <v>1.025119783328212</v>
       </c>
       <c r="E24">
-        <v>1.033957710971447</v>
+        <v>1.000699520473394</v>
       </c>
       <c r="F24">
-        <v>1.041240570530632</v>
+        <v>1.000950732330438</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034032996742941</v>
+        <v>1.042329106615759</v>
       </c>
       <c r="J24">
-        <v>1.031320044359705</v>
+        <v>1.014036514602236</v>
       </c>
       <c r="K24">
-        <v>1.037097320774572</v>
+        <v>1.038719674781927</v>
       </c>
       <c r="L24">
-        <v>1.03733491481067</v>
+        <v>1.014714362874532</v>
       </c>
       <c r="M24">
-        <v>1.044592445437954</v>
+        <v>1.014961172589348</v>
       </c>
       <c r="N24">
-        <v>1.014448912535766</v>
+        <v>1.008553765719137</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02649484563872</v>
+        <v>0.993182465108323</v>
       </c>
       <c r="D25">
-        <v>1.034545789791311</v>
+        <v>1.029219148207971</v>
       </c>
       <c r="E25">
-        <v>1.035291836991418</v>
+        <v>1.006839049459547</v>
       </c>
       <c r="F25">
-        <v>1.042849990237373</v>
+        <v>1.008253361832273</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034263511102194</v>
+        <v>1.04394907085694</v>
       </c>
       <c r="J25">
-        <v>1.032144259640188</v>
+        <v>1.017941465129053</v>
       </c>
       <c r="K25">
-        <v>1.037602265924898</v>
+        <v>1.041380196507026</v>
       </c>
       <c r="L25">
-        <v>1.038345964143762</v>
+        <v>1.019332117648187</v>
       </c>
       <c r="M25">
-        <v>1.045880526997339</v>
+        <v>1.020724891935665</v>
       </c>
       <c r="N25">
-        <v>1.014725024906708</v>
+        <v>1.009872067856013</v>
       </c>
     </row>
   </sheetData>
